--- a/Data/Review_Category_Report.xlsx
+++ b/Data/Review_Category_Report.xlsx
@@ -2,21 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5677d6e1981e93a2/Desktop/Medical Centers Reviews/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5677d6e1981e93a2/Desktop/Healthcare Dashboard/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_7B11B2B5D380D11D5F982811595ED87656CD87E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{316F2BB6-9CB5-4A88-9CC5-950CE8FF53FC}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{727E471C-725F-4A6E-B87C-F64893E37B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEF5D6A8-A9CC-4A71-8481-37EA9C480919}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80C3B38C-19C6-4155-809F-69C08B06251D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="71">
   <si>
     <t>Company Name</t>
   </si>
@@ -54,24 +57,39 @@
     <t>Modern/High-Class Private Hospital</t>
   </si>
   <si>
+    <t>Enugu State</t>
+  </si>
+  <si>
     <t>Others</t>
   </si>
   <si>
-    <t>Enugu State</t>
-  </si>
-  <si>
     <t>Slow Services or Lengthy Waiting Times</t>
   </si>
   <si>
     <t>Unprofessional Staff</t>
   </si>
   <si>
+    <t>Benue State University Teaching Hospital (BSUTH), Makurdi</t>
+  </si>
+  <si>
+    <t>Government Hospital</t>
+  </si>
+  <si>
+    <t>Benue State</t>
+  </si>
+  <si>
+    <t>Hostility</t>
+  </si>
+  <si>
     <t>Biket Hospital, Osogbo</t>
   </si>
   <si>
     <t>Small Private Hospital</t>
   </si>
   <si>
+    <t>Osun State</t>
+  </si>
+  <si>
     <t>Evercare Hospital, Lekki</t>
   </si>
   <si>
@@ -81,51 +99,81 @@
     <t>Expensive Costs</t>
   </si>
   <si>
-    <t>Hostility</t>
-  </si>
-  <si>
     <t>Poor Compensation</t>
   </si>
   <si>
     <t>Unavailability of Medication/Equipment</t>
   </si>
   <si>
+    <t>Faith Mediplex Hospital, Benin City</t>
+  </si>
+  <si>
+    <t>Edo State</t>
+  </si>
+  <si>
     <t>Federal Medical Centre (FMC), Owerri</t>
   </si>
   <si>
-    <t>Government Hospital</t>
-  </si>
-  <si>
     <t>Imo State</t>
   </si>
   <si>
+    <t>Federal University Teaching Hospital, Lafia.</t>
+  </si>
+  <si>
+    <t>Nasarawa State</t>
+  </si>
+  <si>
     <t>First Consultant Medical Centre</t>
   </si>
   <si>
+    <t>First Fertility Hospital, Makurdi</t>
+  </si>
+  <si>
+    <t>Harmony Advanced Diagnostic Centre, Ilorin</t>
+  </si>
+  <si>
+    <t>Kwara State</t>
+  </si>
+  <si>
     <t>Holy Rosary Hospital, Emekuku</t>
   </si>
   <si>
     <t>Ibadan Central Hospital</t>
   </si>
   <si>
-    <t>Oyo State( Old Ife Rd)</t>
-  </si>
-  <si>
-    <t>Oyo State(72 Ososami Rd)</t>
+    <t>Oyo State</t>
+  </si>
+  <si>
+    <t>Ibom Specialist Hospital, Uyo</t>
+  </si>
+  <si>
+    <t>Akwa Ibom State</t>
+  </si>
+  <si>
+    <t>Unavailability of Specialists</t>
+  </si>
+  <si>
+    <t>Ibrahim Badamasi Babangida Specialist Hospital, Minna</t>
+  </si>
+  <si>
+    <t>Niger State</t>
   </si>
   <si>
     <t>Lagos University Teaching Hospital (LUTH)</t>
   </si>
   <si>
+    <t>Lily Hospital, Benin City</t>
+  </si>
+  <si>
     <t>Living Spring Hospital, Osogbo</t>
   </si>
   <si>
-    <t>Osun State</t>
-  </si>
-  <si>
     <t>Niger Foundation Hospital</t>
   </si>
   <si>
+    <t>Unavailability of Specialist</t>
+  </si>
+  <si>
     <t>Nnamdi Azikiwe University Teaching Hospital (NAUTH), Nnewi</t>
   </si>
   <si>
@@ -138,10 +186,19 @@
     <t>Rehoboth Specialist Hospital, Port Harcourt</t>
   </si>
   <si>
+    <t>Rivers State</t>
+  </si>
+  <si>
     <t>Rivers State University Teaching Hospital</t>
   </si>
   <si>
-    <t>Rivers State</t>
+    <t>Save a Life Mission Hospital, Port Harcourt</t>
+  </si>
+  <si>
+    <t>Sauki Hospital, Lafia</t>
+  </si>
+  <si>
+    <t>Sobi Specialist Hospital, Ilorin</t>
   </si>
   <si>
     <t>St. Charles Borromeo Hospital, Onitsha</t>
@@ -150,10 +207,22 @@
     <t>St. David's Hospital, Owerri</t>
   </si>
   <si>
+    <t>St. Luke's Hospital, Uyo</t>
+  </si>
+  <si>
+    <t>Standard Hospital</t>
+  </si>
+  <si>
     <t>The Vine Hospital, Ibadan</t>
   </si>
   <si>
-    <t>Oyo State</t>
+    <t>Tobis Clinic &amp; Consultants, Yenagoa</t>
+  </si>
+  <si>
+    <t>Bayelsa State</t>
+  </si>
+  <si>
+    <t>Top Medical Centre, Minna</t>
   </si>
   <si>
     <t>Toronto Hospital, Onitsha</t>
@@ -162,29 +231,35 @@
     <t>University College Hospital (UCH), Ibadan</t>
   </si>
   <si>
+    <t>University of Benin Teaching Hospital (UBTH), Benin City</t>
+  </si>
+  <si>
+    <t>University of Ilorin Teaching Hospital (UITH), Ilorin</t>
+  </si>
+  <si>
     <t>University of Nigeria Teaching Hospital (UNTH), Ituku-Ozalla</t>
   </si>
   <si>
-    <t>Unavailability of Specialist</t>
+    <t>University of Uyo Teaching Hospital (UUTH), Uyo</t>
+  </si>
+  <si>
+    <t>Adoose Specialist Hospital, Makurdi</t>
+  </si>
+  <si>
+    <t>Federal Medical Centre, Yenagoa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -203,36 +278,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -252,10 +309,6 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -267,44 +320,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -331,14 +384,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -365,6 +436,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,200 +465,176 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D2B844-7411-4463-8A7A-2F63B4579DD3}">
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="63.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -581,13 +646,30 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -598,10 +680,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -609,19 +691,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -632,13 +714,13 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -649,197 +731,211 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11">
-        <v>279</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
       <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
         <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -847,33 +943,33 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -881,67 +977,67 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -949,305 +1045,305 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>190</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1255,16 +1351,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -1272,33 +1368,50 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E45">
-        <v>13</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1306,169 +1419,186 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52">
         <v>7</v>
-      </c>
-      <c r="E52">
-        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E54">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" t="s">
         <v>38</v>
       </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
       <c r="E55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E57">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -1476,209 +1606,1175 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E60">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E62">
-        <v>192</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
       <c r="E63">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
       </c>
       <c r="E65">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E67">
-        <v>267</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
       </c>
       <c r="E68">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" t="s">
         <v>20</v>
       </c>
-      <c r="C70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" t="s">
         <v>10</v>
       </c>
-      <c r="E70">
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83">
         <v>4</v>
       </c>
     </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>58</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>60</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>60</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>61</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>60</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>61</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>60</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
+        <v>61</v>
+      </c>
+      <c r="D99" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D100" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
+        <v>61</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>63</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>47</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>64</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>64</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>65</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>65</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>24</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>65</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>65</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>65</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>65</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>32</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>67</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>67</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>67</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>67</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>68</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>68</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>68</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>37</v>
+      </c>
+      <c r="D124" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>68</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>37</v>
+      </c>
+      <c r="D125" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>68</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>70</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>61</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>